--- a/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
+++ b/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:00:21+00:00</t>
+    <t>2024-11-14T14:11:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
+++ b/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:11:39+00:00</t>
+    <t>2024-11-14T14:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
+++ b/lp-correction-connaissance-med/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:18:06+00:00</t>
+    <t>2024-11-14T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
